--- a/com.zopSmart/TestCase.xlsx
+++ b/com.zopSmart/TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -76,7 +76,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">200</t>
+    <t xml:space="preserve">'200 OK</t>
   </si>
   <si>
     <t xml:space="preserve">300ms</t>
@@ -99,7 +99,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">400</t>
+    <t xml:space="preserve">'400 Bad Request </t>
   </si>
   <si>
     <t xml:space="preserve">Bad Request</t>
@@ -165,7 +165,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">404</t>
+    <t xml:space="preserve">'404 Internal Server Error </t>
   </si>
   <si>
     <t xml:space="preserve">TC_7</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">500</t>
+    <t xml:space="preserve">'500 Internal Server Error </t>
   </si>
   <si>
     <t xml:space="preserve">Banner</t>
@@ -441,18 +441,18 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.65"/>
@@ -684,7 +684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -812,11 +812,11 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
